--- a/artfynd/A 23860-2020.xlsx
+++ b/artfynd/A 23860-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54482361</v>
+        <v>107514495</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>78479</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>392</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Jättjärnberget, Ång</t>
+          <t>Tallsvacka vid Norrtannflon, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600625.9349388339</v>
+        <v>600691.9996803702</v>
       </c>
       <c r="R2" t="n">
-        <v>7033924.831932306</v>
+        <v>7034220.884969737</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,25 +777,34 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Gammal asp (GAMASP)</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54482876</v>
+        <v>107514494</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +817,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Jättjärnberget, Ång</t>
+          <t>Tallsvacka vid Norrtannflon, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600525.2059467396</v>
+        <v>600691.9996803702</v>
       </c>
       <c r="R3" t="n">
-        <v>7033917.181359824</v>
+        <v>7034220.884969737</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +871,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +881,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -889,25 +898,34 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Gammal asp (GAMASP)</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107514495</v>
+        <v>54482361</v>
       </c>
       <c r="B4" t="n">
-        <v>78479</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +934,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>392</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tallsvacka vid Norrtannflon, Ång</t>
+          <t>Jättjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600691.9996803702</v>
+        <v>600625.9349388339</v>
       </c>
       <c r="R4" t="n">
-        <v>7034220.884969737</v>
+        <v>7033924.831932306</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,7 +992,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +1002,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1001,34 +1019,25 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Gammal asp (GAMASP)</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107514494</v>
+        <v>54482876</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>78098</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,37 +1050,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tallsvacka vid Norrtannflon, Ång</t>
+          <t>Jättjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600691.9996803702</v>
+        <v>600525.2059467396</v>
       </c>
       <c r="R5" t="n">
-        <v>7034220.884969737</v>
+        <v>7033917.181359824</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1104,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1105,7 +1114,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1122,27 +1131,18 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Gammal asp (GAMASP)</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 23860-2020.xlsx
+++ b/artfynd/A 23860-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107514495</v>
+        <v>54482361</v>
       </c>
       <c r="B2" t="n">
-        <v>78479</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>392</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tallsvacka vid Norrtannflon, Ång</t>
+          <t>Jättjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600691.9996803702</v>
+        <v>600625.9349388339</v>
       </c>
       <c r="R2" t="n">
-        <v>7034220.884969737</v>
+        <v>7033924.831932306</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,34 +777,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Gammal asp (GAMASP)</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107514494</v>
+        <v>54482876</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tallsvacka vid Norrtannflon, Ång</t>
+          <t>Jättjärnberget, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600691.9996803702</v>
+        <v>600525.2059467396</v>
       </c>
       <c r="R3" t="n">
-        <v>7034220.884969737</v>
+        <v>7033917.181359824</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -871,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -881,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -898,34 +889,25 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Gammal asp (GAMASP)</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Anders Engström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Anders Engström</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
-        </is>
-      </c>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54482361</v>
+        <v>107514495</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>78479</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,41 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>392</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Jättjärnberget, Ång</t>
+          <t>Tallsvacka vid Norrtannflon, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600625.9349388339</v>
+        <v>600691.9996803702</v>
       </c>
       <c r="R4" t="n">
-        <v>7033924.831932306</v>
+        <v>7034220.884969737</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -992,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1002,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1019,25 +1001,34 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Gammal asp (GAMASP)</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54482876</v>
+        <v>107514494</v>
       </c>
       <c r="B5" t="n">
-        <v>78098</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,37 +1041,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Jättjärnberget, Ång</t>
+          <t>Tallsvacka vid Norrtannflon, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600525.2059467396</v>
+        <v>600691.9996803702</v>
       </c>
       <c r="R5" t="n">
-        <v>7033917.181359824</v>
+        <v>7034220.884969737</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1104,7 +1095,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1114,7 +1105,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1131,18 +1122,27 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Gammal asp (GAMASP)</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Anders Engström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Via Anders Engström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Skogsstyrelsens Nyckelbiotopsinventering (NBI) 2009-2021</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
